--- a/Betting_Simulation/reverse_forecast_results_23-25.xlsx
+++ b/Betting_Simulation/reverse_forecast_results_23-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,24 +543,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-04-18_16:52:00</t>
+          <t>2023-04-08_13:40:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flying Finn</t>
+          <t>Milldam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Summit</t>
+          <t>Holetown Hero</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F2" t="n">
         <v>25</v>
@@ -569,73 +569,73 @@
         <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1155308588007563</v>
+        <v>0.02831415011577678</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09766507048823095</v>
+        <v>0.0260907202588668</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03977772920680667</v>
+        <v>-0.4054028475686877</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1210143656059215</v>
+        <v>-0.4520948745637972</v>
       </c>
       <c r="L2" t="n">
+        <v>21</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
         <v>9</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>50</v>
-      </c>
-      <c r="S2" t="n">
-        <v>175</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-04-27_18:50:00</t>
+          <t>2023-04-08_14:15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clansman</t>
+          <t>Eurowork</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Merrijig</t>
+          <t>Begin The Luck</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="E3" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="F3" t="n">
         <v>25</v>
@@ -644,22 +644,22 @@
         <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09180473429425462</v>
+        <v>0.04568295402564058</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09100537555377076</v>
+        <v>0.04240936876657724</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3426442390534737</v>
+        <v>0.03928720408332331</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3309536174738974</v>
+        <v>-0.03518686056036791</v>
       </c>
       <c r="L3" t="n">
-        <v>14.625</v>
+        <v>22.75</v>
       </c>
       <c r="M3" t="n">
-        <v>14.625</v>
+        <v>22.75</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -687,30 +687,30 @@
         <v>-1</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-05-30_14:40:00</t>
+          <t>2023-04-08_14:50:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Substitute</t>
+          <t>Barrier Peaks</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Beronia</t>
+          <t>Iberio</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F4" t="n">
         <v>25</v>
@@ -719,22 +719,22 @@
         <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2661517220301123</v>
+        <v>0.08644601068444327</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1477299271872082</v>
+        <v>0.0801759675150001</v>
       </c>
       <c r="J4" t="n">
-        <v>1.222366878951437</v>
+        <v>0.3615246682799814</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2335448920131885</v>
+        <v>0.2627714883612516</v>
       </c>
       <c r="L4" t="n">
-        <v>8.35</v>
+        <v>15.75</v>
       </c>
       <c r="M4" t="n">
-        <v>8.35</v>
+        <v>15.75</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -762,30 +762,30 @@
         <v>-1</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-05-30_15:15:00</t>
+          <t>2023-04-08_15:25:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chilled Out</t>
+          <t>Foxboro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Loddon</t>
+          <t>Le Ligerien</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.53</v>
+        <v>4.33</v>
       </c>
       <c r="E5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>25</v>
@@ -794,26 +794,26 @@
         <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5561976790776513</v>
+        <v>0.03389046298173396</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3074703985360716</v>
+        <v>0.03387021222279418</v>
       </c>
       <c r="J5" t="n">
-        <v>2.684754004121532</v>
+        <v>-0.4130171811563678</v>
       </c>
       <c r="K5" t="n">
-        <v>1.036960643261621</v>
+        <v>-0.4133679243012047</v>
       </c>
       <c r="L5" t="n">
-        <v>6.6249</v>
+        <v>17.32</v>
       </c>
       <c r="M5" t="n">
-        <v>6.6249</v>
+        <v>17.32</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>140.6225</v>
+        <v>-25</v>
       </c>
       <c r="Q5" t="n">
         <v>-25</v>
@@ -831,36 +831,36 @@
         <v>50</v>
       </c>
       <c r="S5" t="n">
-        <v>115.6225</v>
+        <v>-50</v>
       </c>
       <c r="T5" t="n">
-        <v>2.31245</v>
+        <v>-1</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-06-19_19:05:00</t>
+          <t>2023-04-08_16:35:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kardia</t>
+          <t>Galop Du Bosc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Genesius</t>
+          <t>Kym Eyre</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
@@ -869,26 +869,26 @@
         <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1943458566537921</v>
+        <v>0.04129831704059577</v>
       </c>
       <c r="I6" t="n">
-        <v>0.149309678490848</v>
+        <v>0.0405230495638701</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1660751399227525</v>
+        <v>0.1357037186163838</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.104141929054912</v>
+        <v>0.1143838630064279</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>27.5</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>27.5</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>125</v>
+        <v>-25</v>
       </c>
       <c r="Q6" t="n">
         <v>-25</v>
@@ -906,36 +906,36 @@
         <v>50</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-06-20_16:35:00</t>
+          <t>2023-04-08_17:10:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Filibustering</t>
+          <t>Talimar Pearl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>My Noble Lord</t>
+          <t>Shaws Cross</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
@@ -944,22 +944,22 @@
         <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1481879666034545</v>
+        <v>0.047639172252979</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1452173901857051</v>
+        <v>0.04462301613689404</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2344057618067756</v>
+        <v>0.7031004080439993</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2096608602469232</v>
+        <v>0.5952728268939619</v>
       </c>
       <c r="L7" t="n">
-        <v>8.33</v>
+        <v>35.75</v>
       </c>
       <c r="M7" t="n">
-        <v>8.33</v>
+        <v>35.75</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -968,49 +968,49 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="P7" t="n">
         <v>-25</v>
       </c>
       <c r="Q7" t="n">
-        <v>183.25</v>
+        <v>-25</v>
       </c>
       <c r="R7" t="n">
         <v>50</v>
       </c>
       <c r="S7" t="n">
-        <v>158.25</v>
+        <v>-50</v>
       </c>
       <c r="T7" t="n">
-        <v>3.165</v>
+        <v>-1</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-07-20_14:45:00</t>
+          <t>2023-05-17_14:05:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flowstate</t>
+          <t>Monjules</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sondad</t>
+          <t>Inferno Sacree</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.83</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
@@ -1019,22 +1019,22 @@
         <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2053477076829632</v>
+        <v>0.06212392043628533</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1818431804194728</v>
+        <v>0.06000311255712185</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2213054914444236</v>
+        <v>0.677345851779704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08151231554481453</v>
+        <v>0.6200840390422901</v>
       </c>
       <c r="L8" t="n">
-        <v>5.9475</v>
+        <v>27</v>
       </c>
       <c r="M8" t="n">
-        <v>5.9475</v>
+        <v>27</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1043,49 +1043,49 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="P8" t="n">
         <v>-25</v>
       </c>
       <c r="Q8" t="n">
-        <v>123.6875</v>
+        <v>-25</v>
       </c>
       <c r="R8" t="n">
         <v>50</v>
       </c>
       <c r="S8" t="n">
-        <v>98.6875</v>
+        <v>-50</v>
       </c>
       <c r="T8" t="n">
-        <v>1.97375</v>
+        <v>-1</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-05_16:00:00</t>
+          <t>2023-05-17_15:10:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>International Girl</t>
+          <t>Lady Wilberry</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kings Merchant</t>
+          <t>Wind Tor</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>25</v>
@@ -1094,22 +1094,22 @@
         <v>25</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1003618484482435</v>
+        <v>0.04103662191420992</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08958128321683395</v>
+        <v>0.03537677815313393</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05379940870655642</v>
+        <v>1.40064238198128</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.05939652622324354</v>
+        <v>1.069541521958334</v>
       </c>
       <c r="L9" t="n">
-        <v>10.5</v>
+        <v>58.5</v>
       </c>
       <c r="M9" t="n">
-        <v>10.5</v>
+        <v>58.5</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1137,30 +1137,30 @@
         <v>-1</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-05_16:30:00</t>
+          <t>2023-05-17_15:45:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dawn Of Liberation</t>
+          <t>Imperial Joe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Secret World</t>
+          <t>Across The Line</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="F10" t="n">
         <v>25</v>
@@ -1169,22 +1169,22 @@
         <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07284242981015801</v>
+        <v>0.0407068623266278</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07141821030655857</v>
+        <v>0.0376487994488478</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6025334558234763</v>
+        <v>0.6242038068324491</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5712006267442884</v>
+        <v>0.5021870980090274</v>
       </c>
       <c r="L10" t="n">
-        <v>22</v>
+        <v>39.9</v>
       </c>
       <c r="M10" t="n">
-        <v>22</v>
+        <v>39.9</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1212,30 +1212,30 @@
         <v>-1</v>
       </c>
       <c r="U10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-11_15:10:00</t>
+          <t>2023-05-17_16:20:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Easy Peeler</t>
+          <t>Chantilly Haze</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lesleys Boy</t>
+          <t>Clongowes</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
@@ -1244,22 +1244,22 @@
         <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1803406992544459</v>
+        <v>0.04180807582229717</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1575795799505354</v>
+        <v>0.03845732055156371</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1857400975979817</v>
+        <v>-0.004340674291992919</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03608573817477023</v>
+        <v>-0.0841389110645101</v>
       </c>
       <c r="L11" t="n">
-        <v>6.574999999999999</v>
+        <v>23.815</v>
       </c>
       <c r="M11" t="n">
-        <v>6.574999999999999</v>
+        <v>23.815</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1268,49 +1268,49 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="P11" t="n">
         <v>-25</v>
       </c>
       <c r="Q11" t="n">
-        <v>139.375</v>
+        <v>-25</v>
       </c>
       <c r="R11" t="n">
         <v>50</v>
       </c>
       <c r="S11" t="n">
-        <v>114.375</v>
+        <v>-50</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2875</v>
+        <v>-1</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-11_15:40:00</t>
+          <t>2023-05-17_16:55:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cool Legend</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>St Pancras</t>
+          <t>Wotzizname</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="E12" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
@@ -1319,22 +1319,22 @@
         <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1927822585371103</v>
+        <v>0.05962153788702625</v>
       </c>
       <c r="I12" t="n">
-        <v>0.119793603620662</v>
+        <v>0.05247197287003694</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9519203676882416</v>
+        <v>1.323451331457413</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2129102366592029</v>
+        <v>1.04483278274534</v>
       </c>
       <c r="L12" t="n">
-        <v>10.125</v>
+        <v>38.97</v>
       </c>
       <c r="M12" t="n">
-        <v>10.125</v>
+        <v>38.97</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1362,30 +1362,30 @@
         <v>-1</v>
       </c>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-11_16:40:00</t>
+          <t>2023-05-17_17:30:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Degale</t>
+          <t>Edmond</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bursinel</t>
+          <t>Manala</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>25</v>
@@ -1394,22 +1394,22 @@
         <v>25</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3622778310413137</v>
+        <v>0.04811998648166904</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3578523403448163</v>
+        <v>0.04570470717210075</v>
       </c>
       <c r="J13" t="n">
-        <v>0.715023252149579</v>
+        <v>-0.03760027036661917</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6940729791923606</v>
+        <v>-0.08590585655798511</v>
       </c>
       <c r="L13" t="n">
-        <v>4.734</v>
+        <v>20</v>
       </c>
       <c r="M13" t="n">
-        <v>4.734</v>
+        <v>20</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>93.34999999999999</v>
+        <v>475</v>
       </c>
       <c r="Q13" t="n">
         <v>-25</v>
@@ -1431,36 +1431,36 @@
         <v>50</v>
       </c>
       <c r="S13" t="n">
-        <v>68.34999999999999</v>
+        <v>450</v>
       </c>
       <c r="T13" t="n">
-        <v>1.367</v>
+        <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-17_14:10:00</t>
+          <t>2023-05-31_13:55:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Soldiers Heart</t>
+          <t>EdeIffs Rock</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Line Of Force</t>
+          <t>Mairis Icon</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="E14" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
@@ -1469,26 +1469,26 @@
         <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3333258360721303</v>
+        <v>0.04873631581610412</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1798664997928922</v>
+        <v>0.0440753767164237</v>
       </c>
       <c r="J14" t="n">
-        <v>1.333280852504912</v>
+        <v>0.9007163168280606</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2590654985502456</v>
+        <v>0.7189396919405244</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>150</v>
+        <v>-25</v>
       </c>
       <c r="Q14" t="n">
         <v>-25</v>
@@ -1506,60 +1506,60 @@
         <v>50</v>
       </c>
       <c r="S14" t="n">
-        <v>125</v>
+        <v>-50</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="U14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-17_16:59:00</t>
+          <t>2023-05-31_14:30:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dancingwithmyself</t>
+          <t>Trevada</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Can Can Girl</t>
+          <t>Tommie Beau</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.07545954227624729</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.07381861730495816</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.01902595040878519</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.04035797503554384</v>
+      </c>
+      <c r="L15" t="n">
         <v>13</v>
       </c>
-      <c r="F15" t="n">
-        <v>25</v>
-      </c>
-      <c r="G15" t="n">
-        <v>25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1192116538371733</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.09307400661612152</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.25447814975483</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.540920380620117</v>
-      </c>
-      <c r="L15" t="n">
-        <v>27.3</v>
-      </c>
       <c r="M15" t="n">
-        <v>27.3</v>
+        <v>13</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1568,23 +1568,23 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Loss</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="P15" t="n">
         <v>-25</v>
       </c>
       <c r="Q15" t="n">
-        <v>-25</v>
+        <v>300</v>
       </c>
       <c r="R15" t="n">
         <v>50</v>
       </c>
       <c r="S15" t="n">
-        <v>-50</v>
+        <v>275</v>
       </c>
       <c r="T15" t="n">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="U15" t="n">
         <v>5</v>
@@ -1593,24 +1593,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-26_14:37:00</t>
+          <t>2023-05-31_15:00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sir Edward Lear</t>
+          <t>Bala Brook</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Slaney Swagger</t>
+          <t>Bella Noche</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>2.75</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
@@ -1619,22 +1619,22 @@
         <v>25</v>
       </c>
       <c r="H16" t="n">
-        <v>0.204690967357316</v>
+        <v>0.0342194153612153</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1651720236851831</v>
+        <v>0.02836416568200139</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2665253605233928</v>
+        <v>1.634894982813579</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02200189655207052</v>
+        <v>1.184040757514107</v>
       </c>
       <c r="L16" t="n">
-        <v>6.1875</v>
+        <v>77</v>
       </c>
       <c r="M16" t="n">
-        <v>6.1875</v>
+        <v>77</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1662,30 +1662,30 @@
         <v>-1</v>
       </c>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-27_14:55:00</t>
+          <t>2023-05-31_15:30:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zayer</t>
+          <t>Swapped</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Reservardo</t>
+          <t>Imprevu Du Large</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>25</v>
@@ -1694,26 +1694,26 @@
         <v>25</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2652467330566831</v>
+        <v>0.02506446762920564</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2543871205215008</v>
+        <v>0.02298829846216752</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1936102987550737</v>
+        <v>0.002578705168225559</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1447420423467534</v>
+        <v>-0.08046806151329899</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>40</v>
       </c>
       <c r="M17" t="n">
-        <v>4.5</v>
+        <v>40</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>87.5</v>
+        <v>-25</v>
       </c>
       <c r="Q17" t="n">
         <v>-25</v>
@@ -1731,36 +1731,36 @@
         <v>50</v>
       </c>
       <c r="S17" t="n">
-        <v>62.5</v>
+        <v>-50</v>
       </c>
       <c r="T17" t="n">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-09-28_14:10:00</t>
+          <t>2023-05-31_16:00:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Law Degree</t>
+          <t>Loved Out</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cristo</t>
+          <t>Sherborne</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="E18" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>25</v>
@@ -1769,26 +1769,26 @@
         <v>25</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1756025596458914</v>
+        <v>0.06034263618169882</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1738362555832273</v>
+        <v>0.05654783904965537</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6436399582855431</v>
+        <v>-0.1552030934562165</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6271073522590074</v>
+        <v>-0.2083302533048248</v>
       </c>
       <c r="L18" t="n">
-        <v>9.359999999999999</v>
+        <v>14</v>
       </c>
       <c r="M18" t="n">
-        <v>9.359999999999999</v>
+        <v>14</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>209</v>
+        <v>-25</v>
       </c>
       <c r="Q18" t="n">
         <v>-25</v>
@@ -1806,36 +1806,36 @@
         <v>50</v>
       </c>
       <c r="S18" t="n">
-        <v>184</v>
+        <v>-50</v>
       </c>
       <c r="T18" t="n">
-        <v>3.68</v>
+        <v>-1</v>
       </c>
       <c r="U18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-09-28_17:15:00</t>
+          <t>2023-06-07_13:50:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Al Ameed</t>
+          <t>Sylvies Dance</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lady La Fay</t>
+          <t>Kylenoe Dancer</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="E19" t="n">
-        <v>2.88</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>25</v>
@@ -1844,22 +1844,22 @@
         <v>25</v>
       </c>
       <c r="H19" t="n">
-        <v>0.150970946239264</v>
+        <v>0.03514478049482392</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1468250753966683</v>
+        <v>0.02655413697728718</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1956898942149711</v>
+        <v>1.504065610256204</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1628545971416127</v>
+        <v>0.8919822596317114</v>
       </c>
       <c r="L19" t="n">
-        <v>7.92</v>
+        <v>71.25</v>
       </c>
       <c r="M19" t="n">
-        <v>7.92</v>
+        <v>71.25</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1868,23 +1868,23 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="P19" t="n">
         <v>-25</v>
       </c>
       <c r="Q19" t="n">
-        <v>173</v>
+        <v>-25</v>
       </c>
       <c r="R19" t="n">
         <v>50</v>
       </c>
       <c r="S19" t="n">
-        <v>148</v>
+        <v>-50</v>
       </c>
       <c r="T19" t="n">
-        <v>2.96</v>
+        <v>-1</v>
       </c>
       <c r="U19" t="n">
         <v>6</v>
@@ -1893,24 +1893,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-26_16:35:00</t>
+          <t>2023-06-07_14:25:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Arkinthestars</t>
+          <t>Dancila</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Percys Daydream</t>
+          <t>Throne Hall</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>2.75</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>4.33</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
@@ -1919,22 +1919,22 @@
         <v>25</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2510377011053475</v>
+        <v>0.06986503625558446</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1468026838175462</v>
+        <v>0.0631520043778848</v>
       </c>
       <c r="J20" t="n">
-        <v>10.736012526675</v>
+        <v>-0.1680820807866279</v>
       </c>
       <c r="K20" t="n">
-        <v>5.863025468470287</v>
+        <v>-0.2480175078703366</v>
       </c>
       <c r="L20" t="n">
-        <v>46.75</v>
+        <v>11.9075</v>
       </c>
       <c r="M20" t="n">
-        <v>46.75</v>
+        <v>11.9075</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1968,24 +1968,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-26_17:05:00</t>
+          <t>2023-06-07_15:00:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Diamand De Vindecy</t>
+          <t>Hurricane Vichi</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Forza Orta</t>
+          <t>Cresswell Queen</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F21" t="n">
         <v>25</v>
@@ -1994,22 +1994,22 @@
         <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07306767709638229</v>
+        <v>0.1060101062363869</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06777033609225498</v>
+        <v>0.1049115203549868</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8982982509640118</v>
+        <v>0.5503978037071583</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7606733316767844</v>
+        <v>0.534330985191682</v>
       </c>
       <c r="L21" t="n">
-        <v>25.98</v>
+        <v>14.625</v>
       </c>
       <c r="M21" t="n">
-        <v>25.98</v>
+        <v>14.625</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -2037,30 +2037,30 @@
         <v>-1</v>
       </c>
       <c r="U21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-09_17:45:00</t>
+          <t>2023-06-07_16:45:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Koffee And Kale</t>
+          <t>Bagheera Ginge</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Alaskan Light</t>
+          <t>Balko Saint</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2.88</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>25</v>
@@ -2069,22 +2069,22 @@
         <v>25</v>
       </c>
       <c r="H22" t="n">
-        <v>0.153520579754315</v>
+        <v>0.05342311536725204</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1501795224616064</v>
+        <v>0.05325969134327963</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2158829916541751</v>
+        <v>3.273849229380163</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1894218178959227</v>
+        <v>3.26077530746237</v>
       </c>
       <c r="L22" t="n">
-        <v>7.92</v>
+        <v>80</v>
       </c>
       <c r="M22" t="n">
-        <v>7.92</v>
+        <v>80</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2112,30 +2112,30 @@
         <v>-1</v>
       </c>
       <c r="U22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-18_14:40:00</t>
+          <t>2023-06-14_14:00:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Spinning Lizzie</t>
+          <t>Sharp Note</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Anaisa</t>
+          <t>Milanford</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="E23" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>25</v>
@@ -2144,26 +2144,26 @@
         <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1434323211683999</v>
+        <v>0.05934696661193565</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1344077485403053</v>
+        <v>0.05888527014485219</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5843534196261451</v>
+        <v>0.5578578735633107</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4846679903762119</v>
+        <v>0.5457383413023701</v>
       </c>
       <c r="L23" t="n">
-        <v>11.046</v>
+        <v>26.25</v>
       </c>
       <c r="M23" t="n">
-        <v>11.046</v>
+        <v>26.25</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>251.15</v>
+        <v>-25</v>
       </c>
       <c r="Q23" t="n">
         <v>-25</v>
@@ -2181,36 +2181,36 @@
         <v>50</v>
       </c>
       <c r="S23" t="n">
-        <v>226.15</v>
+        <v>-50</v>
       </c>
       <c r="T23" t="n">
-        <v>4.523</v>
+        <v>-1</v>
       </c>
       <c r="U23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-18_16:10:00</t>
+          <t>2023-06-14_14:30:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Eighth Avenue</t>
+          <t>Tibbie Dunbar</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pouting</t>
+          <t>Komedy Kicks</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="F24" t="n">
         <v>25</v>
@@ -2219,22 +2219,22 @@
         <v>25</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2063716065271066</v>
+        <v>0.1441466218518951</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1875942770246556</v>
+        <v>0.121796027731169</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4274517651873437</v>
+        <v>1.018052705926532</v>
       </c>
       <c r="K24" t="n">
-        <v>0.29757085475184</v>
+        <v>0.7051443882363655</v>
       </c>
       <c r="L24" t="n">
-        <v>6.916899999999999</v>
+        <v>14</v>
       </c>
       <c r="M24" t="n">
-        <v>6.916899999999999</v>
+        <v>14</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2262,30 +2262,30 @@
         <v>-1</v>
       </c>
       <c r="U24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-29_14:20:00</t>
+          <t>2023-06-14_15:05:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Solana Rose</t>
+          <t>Tique</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Star Of Life</t>
+          <t>Ryders Rock</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.44</v>
+        <v>4.33</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F25" t="n">
         <v>25</v>
@@ -2294,22 +2294,22 @@
         <v>25</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3017213360843883</v>
+        <v>0.01693130730985318</v>
       </c>
       <c r="I25" t="n">
-        <v>0.174851319672187</v>
+        <v>0.009108307809164305</v>
       </c>
       <c r="J25" t="n">
-        <v>2.041351067730634</v>
+        <v>2.738940593234879</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7625013022956448</v>
+        <v>1.011387613497754</v>
       </c>
       <c r="L25" t="n">
-        <v>10.08</v>
+        <v>220.83</v>
       </c>
       <c r="M25" t="n">
-        <v>10.08</v>
+        <v>220.83</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2337,30 +2337,30 @@
         <v>-1</v>
       </c>
       <c r="U25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-06-18_18:30:00</t>
+          <t>2023-06-14_15:40:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Novelette</t>
+          <t>Elios DOr</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Duskaura</t>
+          <t>Noahthirtytwored</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.73</v>
+        <v>7.5</v>
       </c>
       <c r="E26" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -2369,22 +2369,22 @@
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>0.262179759468509</v>
+        <v>0.0708058024133054</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2502392168873263</v>
+        <v>0.07058671574635944</v>
       </c>
       <c r="J26" t="n">
-        <v>0.306284433575899</v>
+        <v>0.5931305542993717</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2467918742194143</v>
+        <v>0.5882011042930874</v>
       </c>
       <c r="L26" t="n">
-        <v>4.9824</v>
+        <v>22.5</v>
       </c>
       <c r="M26" t="n">
-        <v>4.9824</v>
+        <v>22.5</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2393,49 +2393,49 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="P26" t="n">
         <v>-25</v>
       </c>
       <c r="Q26" t="n">
-        <v>99.56</v>
+        <v>-25</v>
       </c>
       <c r="R26" t="n">
         <v>50</v>
       </c>
       <c r="S26" t="n">
-        <v>74.56</v>
+        <v>-50</v>
       </c>
       <c r="T26" t="n">
-        <v>1.4912</v>
+        <v>-1</v>
       </c>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-18_20:00:00</t>
+          <t>2023-06-14_16:10:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>My Mate Kev</t>
+          <t>Forget You Not</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mae Amor</t>
+          <t>Mountain Grey</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="F27" t="n">
         <v>25</v>
@@ -2444,22 +2444,22 @@
         <v>25</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1115219119899751</v>
+        <v>0.07859430559713042</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1058173423374325</v>
+        <v>0.06729396838559816</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3661434218771946</v>
+        <v>3.59776687743213</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2962624436335485</v>
+        <v>2.936697150557492</v>
       </c>
       <c r="L27" t="n">
-        <v>12.25</v>
+        <v>58.5</v>
       </c>
       <c r="M27" t="n">
-        <v>12.25</v>
+        <v>58.5</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2487,30 +2487,30 @@
         <v>-1</v>
       </c>
       <c r="U27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-19_14:40:00</t>
+          <t>2023-06-14_17:10:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lucky Hero</t>
+          <t>Petrograd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Front Line Fury</t>
+          <t>Corporal Jackjones</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="E28" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="F28" t="n">
         <v>25</v>
@@ -2519,22 +2519,22 @@
         <v>25</v>
       </c>
       <c r="H28" t="n">
-        <v>0.152286509612664</v>
+        <v>0.05728998137415111</v>
       </c>
       <c r="I28" t="n">
-        <v>0.149310912842373</v>
+        <v>0.05631069385927543</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.04820931492085001</v>
+        <v>-0.1807532663496391</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0668067947351686</v>
+        <v>-0.1947570778123613</v>
       </c>
       <c r="L28" t="n">
-        <v>6.25</v>
+        <v>14.3</v>
       </c>
       <c r="M28" t="n">
-        <v>6.25</v>
+        <v>14.3</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2543,23 +2543,23 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="P28" t="n">
         <v>-25</v>
       </c>
       <c r="Q28" t="n">
-        <v>131.25</v>
+        <v>-25</v>
       </c>
       <c r="R28" t="n">
         <v>50</v>
       </c>
       <c r="S28" t="n">
-        <v>106.25</v>
+        <v>-50</v>
       </c>
       <c r="T28" t="n">
-        <v>2.125</v>
+        <v>-1</v>
       </c>
       <c r="U28" t="n">
         <v>6</v>
@@ -2568,24 +2568,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-19_16:30:00</t>
+          <t>2023-06-27_17:15:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pendragon</t>
+          <t>Urabamba</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Arkinthestars</t>
+          <t>Ranco</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>25</v>
@@ -2594,26 +2594,26 @@
         <v>25</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1189054976947586</v>
+        <v>0.0535976619573383</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08845540838072122</v>
+        <v>0.0446964166231939</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1236569532154685</v>
+        <v>0.2863438869761193</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1640963908021844</v>
+        <v>0.07271399895665376</v>
       </c>
       <c r="L29" t="n">
-        <v>9.450000000000001</v>
+        <v>24</v>
       </c>
       <c r="M29" t="n">
-        <v>9.450000000000001</v>
+        <v>24</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>211.25</v>
+        <v>-25</v>
       </c>
       <c r="Q29" t="n">
         <v>-25</v>
@@ -2631,33 +2631,33 @@
         <v>50</v>
       </c>
       <c r="S29" t="n">
-        <v>186.25</v>
+        <v>-50</v>
       </c>
       <c r="T29" t="n">
-        <v>3.725000000000001</v>
+        <v>-1</v>
       </c>
       <c r="U29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-19_17:43:00</t>
+          <t>2023-06-27_17:50:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Keats House</t>
+          <t>Uncle Matthew</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Perfidia</t>
+          <t>Waitara</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
         <v>4.33</v>
@@ -2669,22 +2669,22 @@
         <v>25</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07948747772847252</v>
+        <v>0.07265892134442301</v>
       </c>
       <c r="I30" t="n">
-        <v>0.073632431400231</v>
+        <v>0.06401368730008192</v>
       </c>
       <c r="J30" t="n">
-        <v>0.548813503539287</v>
+        <v>1.202291905949461</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4347279258335011</v>
+        <v>0.940254862065483</v>
       </c>
       <c r="L30" t="n">
-        <v>19.485</v>
+        <v>30.31</v>
       </c>
       <c r="M30" t="n">
-        <v>19.485</v>
+        <v>30.31</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2713,6 +2713,3981 @@
       </c>
       <c r="U30" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-06-27_18:20:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Midnight Jewel</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Fat Sam</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F31" t="n">
+        <v>25</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.045271980610152</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0435919969032982</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.01986161979020917</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.05623326704359399</v>
+      </c>
+      <c r="L31" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="M31" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R31" t="n">
+        <v>50</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-06-27_19:30:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Moon King</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Premier dTroice</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>25</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03224254444982182</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.03016086735795956</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.2906640221039201</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.3364609181248898</v>
+      </c>
+      <c r="L32" t="n">
+        <v>22</v>
+      </c>
+      <c r="M32" t="n">
+        <v>22</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R32" t="n">
+        <v>50</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-06-27_20:05:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bala Brook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Frankie Faulkner</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>25</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.06919797355003655</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.05370604269021691</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.6607513652008772</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.2889450245652059</v>
+      </c>
+      <c r="L33" t="n">
+        <v>24</v>
+      </c>
+      <c r="M33" t="n">
+        <v>24</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R33" t="n">
+        <v>50</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-06-27_20:40:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Loved Out</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Seymour Promise</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>25</v>
+      </c>
+      <c r="G34" t="n">
+        <v>25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.04450726408304958</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.04370147297778601</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.1015547860554772</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.08161145620020371</v>
+      </c>
+      <c r="L34" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R34" t="n">
+        <v>50</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-07-07_15:15:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Just Hannah</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Clapton Hill</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>25</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.05945678005356361</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.05716853560467545</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6350614514729994</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5721347291285749</v>
+      </c>
+      <c r="L35" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R35" t="n">
+        <v>50</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-07-07_15:50:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Coolnaugh Haze</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Glorious Zoff</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.03352010386931516</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0331335073042397</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.2457976629404088</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.2544960856546069</v>
+      </c>
+      <c r="L36" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R36" t="n">
+        <v>50</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-07-07_16:25:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Bashful Boy</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Runswick Bay</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.04705360139746478</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.04617588191108458</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.1337431982726734</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.1499020140169329</v>
+      </c>
+      <c r="L37" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="M37" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R37" t="n">
+        <v>50</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-07-07_17:00:00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OFaolains Lad</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Danny Whizzbang</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>25</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.07602745660374799</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.07330297376079907</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9767138716974477</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9058773177807757</v>
+      </c>
+      <c r="L38" t="n">
+        <v>26</v>
+      </c>
+      <c r="M38" t="n">
+        <v>26</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R38" t="n">
+        <v>50</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-07-07_17:35:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sangiovese</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Maillot Vert</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11</v>
+      </c>
+      <c r="F39" t="n">
+        <v>25</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.05794308297068375</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.04375753676302624</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.071465216201944</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.564331939278188</v>
+      </c>
+      <c r="L39" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="M39" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R39" t="n">
+        <v>50</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-07-17_14:50:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Heronord</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Noahs Light</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="n">
+        <v>25</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.03425559414821285</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.03296992881390741</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5586295337436847</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.5001317610327871</v>
+      </c>
+      <c r="L40" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R40" t="n">
+        <v>50</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-07-17_15:25:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Thirtyfourstitches</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>25</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.08021992613328462</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.07463848500509655</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.406597783998539</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.239154550152896</v>
+      </c>
+      <c r="L41" t="n">
+        <v>30</v>
+      </c>
+      <c r="M41" t="n">
+        <v>30</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R41" t="n">
+        <v>50</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-07-17_16:00:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Call Me Rocky</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Clearance</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F42" t="n">
+        <v>25</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.04321301589977909</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.03871957735457013</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.2707803566912278</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.3466071321416291</v>
+      </c>
+      <c r="L42" t="n">
+        <v>16.875</v>
+      </c>
+      <c r="M42" t="n">
+        <v>16.875</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>396.875</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R42" t="n">
+        <v>50</v>
+      </c>
+      <c r="S42" t="n">
+        <v>371.875</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7.4375</v>
+      </c>
+      <c r="U42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-07-17_16:35:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Premiumaccess</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Romanor</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F43" t="n">
+        <v>25</v>
+      </c>
+      <c r="G43" t="n">
+        <v>25</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.07111730322688394</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.06341761019286621</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.1131387818394666</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.2091570338508812</v>
+      </c>
+      <c r="L43" t="n">
+        <v>12.4704</v>
+      </c>
+      <c r="M43" t="n">
+        <v>12.4704</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R43" t="n">
+        <v>50</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-07-17_17:10:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fountainspinklady</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Dontmesswithme</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>25</v>
+      </c>
+      <c r="G44" t="n">
+        <v>25</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.06016142940188306</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.04307941860741984</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.707264323084738</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9385738373338927</v>
+      </c>
+      <c r="L44" t="n">
+        <v>45</v>
+      </c>
+      <c r="M44" t="n">
+        <v>45</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R44" t="n">
+        <v>50</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T44" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-07-23_14:35:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Max Of Stars</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Hourless</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>25</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.08168307652933898</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0755322703905026</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.5139856946504331</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.5505829911765097</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5.949999999999999</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5.949999999999999</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>123.75</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R45" t="n">
+        <v>50</v>
+      </c>
+      <c r="S45" t="n">
+        <v>98.74999999999999</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="U45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-07-23_15:05:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Brianna Rose</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Honey Im Good</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F46" t="n">
+        <v>25</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.09880399498927124</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.09632913424207235</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.02554559941831247</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.04995391353756162</v>
+      </c>
+      <c r="L46" t="n">
+        <v>9.862499999999999</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9.862499999999999</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>221.5625</v>
+      </c>
+      <c r="R46" t="n">
+        <v>50</v>
+      </c>
+      <c r="S46" t="n">
+        <v>196.5625</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.931249999999999</v>
+      </c>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-07-23_15:35:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Jack The Farmer</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Wearapinkribbon</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E47" t="n">
+        <v>11</v>
+      </c>
+      <c r="F47" t="n">
+        <v>25</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.08262145528290592</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0593442940007743</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.953717026363887</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.121558510527681</v>
+      </c>
+      <c r="L47" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="M47" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R47" t="n">
+        <v>50</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-07-23_16:05:00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Landen Calling</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Yes No Maybe So</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>25</v>
+      </c>
+      <c r="G48" t="n">
+        <v>25</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.09125189958235283</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.08049700010421545</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.7082355601816448</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.5069038419509132</v>
+      </c>
+      <c r="L48" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="M48" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R48" t="n">
+        <v>50</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-07-23_16:35:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Getaway Tom</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bala Brook</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>25</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.05995453452007435</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.05293554074473526</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1541247895114312</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.01900915933615366</v>
+      </c>
+      <c r="L49" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="M49" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>50</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-07-23_17:10:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Finalshot</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Seymour Promise</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>25</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.04081515251429947</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.04032021477537465</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5917909480576793</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.5724883762396115</v>
+      </c>
+      <c r="L50" t="n">
+        <v>39</v>
+      </c>
+      <c r="M50" t="n">
+        <v>39</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R50" t="n">
+        <v>50</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-07-31_14:10:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Donnie Azoff</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Spitalfield</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.06883796341187134</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.06807478370217541</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.478166682827368</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.450692213278315</v>
+      </c>
+      <c r="L51" t="n">
+        <v>36</v>
+      </c>
+      <c r="M51" t="n">
+        <v>36</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>50</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-07-31_14:45:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jony Max</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Investment Manager</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>25</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.04097658440312917</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.03708955462049505</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.9156553208462885</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.7339366785081438</v>
+      </c>
+      <c r="L52" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="M52" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>50</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-07-31_15:20:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Supposedtobe</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Zabeel Champion</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>25</v>
+      </c>
+      <c r="G53" t="n">
+        <v>25</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.04901372177741625</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.04893598376219258</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.6297062490990903</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.6271214600929034</v>
+      </c>
+      <c r="L53" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="M53" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R53" t="n">
+        <v>50</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-07-31_15:55:00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Glengeever</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Line Of Descent</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>25</v>
+      </c>
+      <c r="G54" t="n">
+        <v>25</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0622077700231791</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0577824644757681</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.359219581251671</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.120253081691477</v>
+      </c>
+      <c r="L54" t="n">
+        <v>54</v>
+      </c>
+      <c r="M54" t="n">
+        <v>54</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R54" t="n">
+        <v>50</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-07-31_16:30:00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Dicey Rielly</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>One Touch</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>25</v>
+      </c>
+      <c r="G55" t="n">
+        <v>25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02870247914843101</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.02283293910454015</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.1193966867888093</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.1095153749229343</v>
+      </c>
+      <c r="L55" t="n">
+        <v>39</v>
+      </c>
+      <c r="M55" t="n">
+        <v>39</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R55" t="n">
+        <v>50</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-08-22_14:30:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Stepney Causeway</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Dr T J Eckleburg</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>25</v>
+      </c>
+      <c r="G56" t="n">
+        <v>25</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.08327499583243944</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.07690085681189938</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8736874062298874</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.7302692782677362</v>
+      </c>
+      <c r="L56" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>50</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-08-22_16:00:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Bagheera Ginge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Glajou</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>25</v>
+      </c>
+      <c r="G57" t="n">
+        <v>25</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0738587849473733</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.06699182537892577</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.2925287365790328</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1723569441312011</v>
+      </c>
+      <c r="L57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R57" t="n">
+        <v>50</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-08-22_16:30:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Aliomaana</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Lady Adare</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>25</v>
+      </c>
+      <c r="G58" t="n">
+        <v>25</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.06188574799848228</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.05596173437567462</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.72297291193322</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.462316312529683</v>
+      </c>
+      <c r="L58" t="n">
+        <v>44</v>
+      </c>
+      <c r="M58" t="n">
+        <v>44</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>50</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-09-02_14:32:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Carrigeen Kampala</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Thrifty Scot</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E59" t="n">
+        <v>41</v>
+      </c>
+      <c r="F59" t="n">
+        <v>25</v>
+      </c>
+      <c r="G59" t="n">
+        <v>25</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0252682562504806</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.02205187509758971</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.724676071489323</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.377853691773098</v>
+      </c>
+      <c r="L59" t="n">
+        <v>107.83</v>
+      </c>
+      <c r="M59" t="n">
+        <v>107.83</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>50</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-09-02_15:43:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Dans Chosen</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Reserve Tank</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>25</v>
+      </c>
+      <c r="G60" t="n">
+        <v>25</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0453231326546549</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.03480069317697736</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.209502716914427</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.696533792377646</v>
+      </c>
+      <c r="L60" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="M60" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R60" t="n">
+        <v>50</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-09-02_16:17:00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Fix At All</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Pyramid Place</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>25</v>
+      </c>
+      <c r="G61" t="n">
+        <v>25</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.02775221152454144</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.02520664632394469</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.2974158887723122</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1784107156444144</v>
+      </c>
+      <c r="L61" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="M61" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R61" t="n">
+        <v>50</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-09-02_16:52:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Romanor</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Blueberry Wine</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>25</v>
+      </c>
+      <c r="G62" t="n">
+        <v>25</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.05291807265409523</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.04991411165079414</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.037345797182667</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9216932985555746</v>
+      </c>
+      <c r="L62" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R62" t="n">
+        <v>50</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-09-02_17:27:00</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Escobedo</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sassified</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F63" t="n">
+        <v>25</v>
+      </c>
+      <c r="G63" t="n">
+        <v>25</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.03489097894898377</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.03457444837706774</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.1690713363299515</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.1766095119001319</v>
+      </c>
+      <c r="L63" t="n">
+        <v>23.815</v>
+      </c>
+      <c r="M63" t="n">
+        <v>23.815</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R63" t="n">
+        <v>50</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-09-11_14:40:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Janeslittlevoice</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Prince Cleni</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>25</v>
+      </c>
+      <c r="G64" t="n">
+        <v>25</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.04145334637847629</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.03906972524846523</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.05693636988966444</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.111163750597416</v>
+      </c>
+      <c r="L64" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="M64" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R64" t="n">
+        <v>50</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-09-11_15:15:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>The Galahad Kid</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>All The Glory</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F65" t="n">
+        <v>25</v>
+      </c>
+      <c r="G65" t="n">
+        <v>25</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0428209530251715</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.04216419837619363</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.5979112510936395</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.6040781772475418</v>
+      </c>
+      <c r="L65" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="M65" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R65" t="n">
+        <v>50</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-09-11_15:50:00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Frankie Faulkner</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Opening Bid</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25</v>
+      </c>
+      <c r="G66" t="n">
+        <v>25</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.06104739027421478</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.05503680292961199</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.1751622627786347</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.05945845639503067</v>
+      </c>
+      <c r="L66" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="M66" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>50</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-09-11_16:25:00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Valentino</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tommie Beau</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>12</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>25</v>
+      </c>
+      <c r="G67" t="n">
+        <v>25</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.009998019285015994</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.009035687454729071</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.07978608278172739</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.02414575488926041</v>
+      </c>
+      <c r="L67" t="n">
+        <v>108</v>
+      </c>
+      <c r="M67" t="n">
+        <v>108</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>50</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-09-11_17:00:00</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Saddlers Quest</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Karannelle</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>25</v>
+      </c>
+      <c r="G68" t="n">
+        <v>25</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.04317385462093154</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.04144933967108562</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.2984248624098625</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-0.3264482303448586</v>
+      </c>
+      <c r="L68" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M68" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>381.25</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R68" t="n">
+        <v>50</v>
+      </c>
+      <c r="S68" t="n">
+        <v>356.25</v>
+      </c>
+      <c r="T68" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="U68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-09-22_14:35:00</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ben Lilly</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Presenting Yeats</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>25</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.05073723871228084</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.03992943868164265</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2430623484508807</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.02172875229975502</v>
+      </c>
+      <c r="L69" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M69" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R69" t="n">
+        <v>50</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-09-22_15:10:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Presenting Nelly</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Chantilly Rose</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E70" t="n">
+        <v>11</v>
+      </c>
+      <c r="F70" t="n">
+        <v>25</v>
+      </c>
+      <c r="G70" t="n">
+        <v>25</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.06624510518253428</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.05847585568649816</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.003914431771662</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.7688946345165695</v>
+      </c>
+      <c r="L70" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="M70" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R70" t="n">
+        <v>50</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-09-22_15:45:00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Faitque De LIsle</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Frankie Faulkner</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>25</v>
+      </c>
+      <c r="G71" t="n">
+        <v>25</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.102459935136079</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1001373621216274</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.04818307029835</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.979086523118414</v>
+      </c>
+      <c r="L71" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="M71" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R71" t="n">
+        <v>50</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-09-22_16:20:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Wonderful Eagle</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Alberts Bay</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E72" t="n">
+        <v>81</v>
+      </c>
+      <c r="F72" t="n">
+        <v>25</v>
+      </c>
+      <c r="G72" t="n">
+        <v>25</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.004329032903866951</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.002544041409750764</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.009876795814082406</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.4065260199333418</v>
+      </c>
+      <c r="L72" t="n">
+        <v>233.28</v>
+      </c>
+      <c r="M72" t="n">
+        <v>233.28</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R72" t="n">
+        <v>50</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-09-22_16:55:00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Star Legend</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Reams Of Love</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>25</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.04863928530073128</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.03641240327844092</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.529242835638027</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.8934449704789278</v>
+      </c>
+      <c r="L73" t="n">
+        <v>52</v>
+      </c>
+      <c r="M73" t="n">
+        <v>52</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R73" t="n">
+        <v>50</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-10-02_14:45:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Foxey</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Absolute Ruler</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>25</v>
+      </c>
+      <c r="G74" t="n">
+        <v>25</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.04588399342040899</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0386731082187222</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5256427812285989</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.2858808482725133</v>
+      </c>
+      <c r="L74" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="M74" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R74" t="n">
+        <v>50</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-10-02_15:45:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Bells Of Peterboro</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Jet Plane</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>25</v>
+      </c>
+      <c r="G75" t="n">
+        <v>25</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.07056749822617094</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0570062650213569</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.7465455810977307</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.4109050592785833</v>
+      </c>
+      <c r="L75" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="M75" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R75" t="n">
+        <v>50</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-10-02_16:15:00</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Coal Fire</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ben Lilly</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>4</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F76" t="n">
+        <v>25</v>
+      </c>
+      <c r="G76" t="n">
+        <v>25</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.06740371075685343</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.06020447644249135</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.1674322703087014</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.04274153198395025</v>
+      </c>
+      <c r="L76" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="M76" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R76" t="n">
+        <v>50</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-10-02_16:45:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Rambo T</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Shallow River</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>25</v>
+      </c>
+      <c r="G77" t="n">
+        <v>25</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.04796732146319505</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0466279546619337</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.02410484483129682</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.05135426240295893</v>
+      </c>
+      <c r="L77" t="n">
+        <v>20.345</v>
+      </c>
+      <c r="M77" t="n">
+        <v>20.345</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>483.625</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R77" t="n">
+        <v>50</v>
+      </c>
+      <c r="S77" t="n">
+        <v>458.625</v>
+      </c>
+      <c r="T77" t="n">
+        <v>9.172499999999999</v>
+      </c>
+      <c r="U77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-10-02_17:15:00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Kym Eyre</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ryders Rock</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" t="n">
+        <v>25</v>
+      </c>
+      <c r="G78" t="n">
+        <v>25</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.05958831550291574</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.05098774861928314</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.294150146862256</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9630283218424007</v>
+      </c>
+      <c r="L78" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="M78" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R78" t="n">
+        <v>50</v>
+      </c>
+      <c r="S78" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-10-21_14:15:00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Flying Fortune</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Spinnaker Blue</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>25</v>
+      </c>
+      <c r="G79" t="n">
+        <v>25</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0186519987474498</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.01737150420785415</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.4777440350714055</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.5135978821800837</v>
+      </c>
+      <c r="L79" t="n">
+        <v>28</v>
+      </c>
+      <c r="M79" t="n">
+        <v>28</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R79" t="n">
+        <v>50</v>
+      </c>
+      <c r="S79" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-10-21_14:55:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Rock Of Star</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Investment Manager</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F80" t="n">
+        <v>25</v>
+      </c>
+      <c r="G80" t="n">
+        <v>25</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.04100942948112385</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.04056627018643554</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.3341093888002514</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.3413051878477529</v>
+      </c>
+      <c r="L80" t="n">
+        <v>16.2375</v>
+      </c>
+      <c r="M80" t="n">
+        <v>16.2375</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R80" t="n">
+        <v>50</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-10-21_15:35:00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Mr Yeats</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>West To The Bridge</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F81" t="n">
+        <v>25</v>
+      </c>
+      <c r="G81" t="n">
+        <v>25</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.05922705853028524</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.05152180160584928</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.1471303571638927</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.2580860568757705</v>
+      </c>
+      <c r="L81" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="M81" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R81" t="n">
+        <v>50</v>
+      </c>
+      <c r="S81" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-10-21_16:15:00</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Little Else</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Wonderful Eagle</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F82" t="n">
+        <v>25</v>
+      </c>
+      <c r="G82" t="n">
+        <v>25</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.05454399517967019</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.04955859592951859</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.1360231163540241</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.2149918404764255</v>
+      </c>
+      <c r="L82" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="M82" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R82" t="n">
+        <v>50</v>
+      </c>
+      <c r="S82" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-10-21_17:00:00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Hikari Pompadour Aa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Tough Approach</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>25</v>
+      </c>
+      <c r="G83" t="n">
+        <v>25</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.05898096771978715</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.05009763421812018</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4155432252748915</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.2023432212348845</v>
+      </c>
+      <c r="L83" t="n">
+        <v>24</v>
+      </c>
+      <c r="M83" t="n">
+        <v>24</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>-25</v>
+      </c>
+      <c r="R83" t="n">
+        <v>50</v>
+      </c>
+      <c r="S83" t="n">
+        <v>-50</v>
+      </c>
+      <c r="T83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
